--- a/excel/tests/q_learn_5_rooms_test_gamma.xlsx
+++ b/excel/tests/q_learn_5_rooms_test_gamma.xlsx
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -520,6 +520,12 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>26.706600000000002</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>25.156300000000002</v>
       </c>
@@ -538,10 +544,22 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>27.687200000000001</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
       <c r="Q3">
         <v>28.6432</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>27.3828</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
@@ -570,6 +588,12 @@
       <c r="F4">
         <v>261</v>
       </c>
+      <c r="G4">
+        <v>36.630899999999997</v>
+      </c>
+      <c r="H4">
+        <v>262</v>
+      </c>
       <c r="I4">
         <v>37.022399999999998</v>
       </c>
@@ -588,11 +612,23 @@
       <c r="N4">
         <v>272</v>
       </c>
+      <c r="O4">
+        <v>37.715899999999998</v>
+      </c>
+      <c r="P4">
+        <v>270</v>
+      </c>
       <c r="Q4">
         <v>36.561399999999999</v>
       </c>
       <c r="R4">
         <v>240</v>
+      </c>
+      <c r="S4">
+        <v>36.150500000000001</v>
+      </c>
+      <c r="T4">
+        <v>249</v>
       </c>
       <c r="U4">
         <v>36.414000000000001</v>
@@ -620,6 +656,12 @@
       <c r="F5">
         <v>318</v>
       </c>
+      <c r="G5">
+        <v>37.901400000000002</v>
+      </c>
+      <c r="H5">
+        <v>330</v>
+      </c>
       <c r="I5">
         <v>37.772399999999998</v>
       </c>
@@ -638,11 +680,23 @@
       <c r="N5">
         <v>307</v>
       </c>
+      <c r="O5">
+        <v>39.012900000000002</v>
+      </c>
+      <c r="P5">
+        <v>360</v>
+      </c>
       <c r="Q5">
         <v>38.120600000000003</v>
       </c>
       <c r="R5">
         <v>310</v>
+      </c>
+      <c r="S5">
+        <v>37.347499999999997</v>
+      </c>
+      <c r="T5">
+        <v>344</v>
       </c>
       <c r="U5">
         <v>37.868899999999996</v>
@@ -670,6 +724,12 @@
       <c r="F6">
         <v>343</v>
       </c>
+      <c r="G6">
+        <v>37.997300000000003</v>
+      </c>
+      <c r="H6">
+        <v>363</v>
+      </c>
       <c r="I6">
         <v>38.716200000000001</v>
       </c>
@@ -688,11 +748,23 @@
       <c r="N6">
         <v>349</v>
       </c>
+      <c r="O6">
+        <v>37.677700000000002</v>
+      </c>
+      <c r="P6">
+        <v>385</v>
+      </c>
       <c r="Q6">
         <v>38.072499999999998</v>
       </c>
       <c r="R6">
         <v>364</v>
+      </c>
+      <c r="S6">
+        <v>37.111899999999999</v>
+      </c>
+      <c r="T6">
+        <v>345</v>
       </c>
       <c r="U6">
         <v>36.1539</v>
@@ -720,6 +792,12 @@
       <c r="F7">
         <v>365</v>
       </c>
+      <c r="G7">
+        <v>37.7059</v>
+      </c>
+      <c r="H7">
+        <v>365</v>
+      </c>
       <c r="I7">
         <v>38.288899999999998</v>
       </c>
@@ -738,11 +816,23 @@
       <c r="N7">
         <v>386</v>
       </c>
+      <c r="O7">
+        <v>37.617199999999997</v>
+      </c>
+      <c r="P7">
+        <v>370</v>
+      </c>
       <c r="Q7">
         <v>38.193600000000004</v>
       </c>
       <c r="R7">
         <v>390</v>
+      </c>
+      <c r="S7">
+        <v>37.982999999999997</v>
+      </c>
+      <c r="T7">
+        <v>372</v>
       </c>
       <c r="U7">
         <v>38.8247</v>
@@ -770,6 +860,12 @@
       <c r="F8">
         <v>370</v>
       </c>
+      <c r="G8">
+        <v>38.050400000000003</v>
+      </c>
+      <c r="H8">
+        <v>352</v>
+      </c>
       <c r="I8">
         <v>37.927799999999998</v>
       </c>
@@ -788,11 +884,23 @@
       <c r="N8">
         <v>379</v>
       </c>
+      <c r="O8">
+        <v>37.744500000000002</v>
+      </c>
+      <c r="P8">
+        <v>378</v>
+      </c>
       <c r="Q8">
         <v>38.8675</v>
       </c>
       <c r="R8">
         <v>354</v>
+      </c>
+      <c r="S8">
+        <v>38.7425</v>
+      </c>
+      <c r="T8">
+        <v>363</v>
       </c>
       <c r="U8">
         <v>37.905799999999999</v>
@@ -820,6 +928,12 @@
       <c r="F9">
         <v>392</v>
       </c>
+      <c r="G9">
+        <v>38.656199999999998</v>
+      </c>
+      <c r="H9">
+        <v>361</v>
+      </c>
       <c r="I9">
         <v>38.380000000000003</v>
       </c>
@@ -838,11 +952,23 @@
       <c r="N9">
         <v>370</v>
       </c>
+      <c r="O9">
+        <v>38.032299999999999</v>
+      </c>
+      <c r="P9">
+        <v>385</v>
+      </c>
       <c r="Q9">
         <v>38.314399999999999</v>
       </c>
       <c r="R9">
         <v>365</v>
+      </c>
+      <c r="S9">
+        <v>38.517499999999998</v>
+      </c>
+      <c r="T9">
+        <v>391</v>
       </c>
       <c r="U9">
         <v>38.8232</v>
@@ -870,6 +996,12 @@
       <c r="F10">
         <v>364</v>
       </c>
+      <c r="G10">
+        <v>38.967199999999998</v>
+      </c>
+      <c r="H10">
+        <v>377</v>
+      </c>
       <c r="I10">
         <v>37.520800000000001</v>
       </c>
@@ -888,11 +1020,23 @@
       <c r="N10">
         <v>401</v>
       </c>
+      <c r="O10">
+        <v>38.421500000000002</v>
+      </c>
+      <c r="P10">
+        <v>375</v>
+      </c>
       <c r="Q10">
         <v>38.688800000000001</v>
       </c>
       <c r="R10">
         <v>394</v>
+      </c>
+      <c r="S10">
+        <v>38.421599999999998</v>
+      </c>
+      <c r="T10">
+        <v>383</v>
       </c>
       <c r="U10">
         <v>38.698700000000002</v>
@@ -920,6 +1064,12 @@
       <c r="F11">
         <v>396</v>
       </c>
+      <c r="G11">
+        <v>37.840600000000002</v>
+      </c>
+      <c r="H11">
+        <v>414</v>
+      </c>
       <c r="I11">
         <v>37.002000000000002</v>
       </c>
@@ -938,11 +1088,23 @@
       <c r="N11">
         <v>394</v>
       </c>
+      <c r="O11">
+        <v>37.921700000000001</v>
+      </c>
+      <c r="P11">
+        <v>395</v>
+      </c>
       <c r="Q11">
         <v>37.597099999999998</v>
       </c>
       <c r="R11">
         <v>373</v>
+      </c>
+      <c r="S11">
+        <v>38.464100000000002</v>
+      </c>
+      <c r="T11">
+        <v>400</v>
       </c>
       <c r="U11">
         <v>38.104599999999998</v>
@@ -970,6 +1132,12 @@
       <c r="F12">
         <v>367</v>
       </c>
+      <c r="G12">
+        <v>37.5535</v>
+      </c>
+      <c r="H12">
+        <v>405</v>
+      </c>
       <c r="I12">
         <v>39.043500000000002</v>
       </c>
@@ -988,11 +1156,23 @@
       <c r="N12">
         <v>390</v>
       </c>
+      <c r="O12">
+        <v>38.370899999999999</v>
+      </c>
+      <c r="P12">
+        <v>372</v>
+      </c>
       <c r="Q12">
         <v>37.477400000000003</v>
       </c>
       <c r="R12">
         <v>397</v>
+      </c>
+      <c r="S12">
+        <v>39.419199999999996</v>
+      </c>
+      <c r="T12">
+        <v>376</v>
       </c>
       <c r="U12">
         <v>38.346600000000002</v>
@@ -1020,6 +1200,12 @@
       <c r="F13">
         <v>401</v>
       </c>
+      <c r="G13">
+        <v>38.0274</v>
+      </c>
+      <c r="H13">
+        <v>375</v>
+      </c>
       <c r="I13">
         <v>36.926299999999998</v>
       </c>
@@ -1038,11 +1224,23 @@
       <c r="N13">
         <v>379</v>
       </c>
+      <c r="O13">
+        <v>37.332999999999998</v>
+      </c>
+      <c r="P13">
+        <v>418</v>
+      </c>
       <c r="Q13">
         <v>37.713200000000001</v>
       </c>
       <c r="R13">
         <v>405</v>
+      </c>
+      <c r="S13">
+        <v>38.4876</v>
+      </c>
+      <c r="T13">
+        <v>378</v>
       </c>
       <c r="U13">
         <v>38.080500000000001</v>
@@ -1070,6 +1268,12 @@
       <c r="F14">
         <v>386</v>
       </c>
+      <c r="G14">
+        <v>38.1066</v>
+      </c>
+      <c r="H14">
+        <v>379</v>
+      </c>
       <c r="I14">
         <v>37.889800000000001</v>
       </c>
@@ -1088,11 +1292,23 @@
       <c r="N14">
         <v>389</v>
       </c>
+      <c r="O14">
+        <v>38.416400000000003</v>
+      </c>
+      <c r="P14">
+        <v>385</v>
+      </c>
       <c r="Q14">
         <v>37.8688</v>
       </c>
       <c r="R14">
         <v>405</v>
+      </c>
+      <c r="S14">
+        <v>38.006399999999999</v>
+      </c>
+      <c r="T14">
+        <v>414</v>
       </c>
       <c r="U14">
         <v>37.521000000000001</v>
@@ -1120,6 +1336,12 @@
       <c r="F15">
         <v>388</v>
       </c>
+      <c r="G15">
+        <v>38.185299999999998</v>
+      </c>
+      <c r="H15">
+        <v>390</v>
+      </c>
       <c r="I15">
         <v>37.920699999999997</v>
       </c>
@@ -1138,11 +1360,23 @@
       <c r="N15">
         <v>405</v>
       </c>
+      <c r="O15">
+        <v>38.357999999999997</v>
+      </c>
+      <c r="P15">
+        <v>369</v>
+      </c>
       <c r="Q15">
         <v>37.777799999999999</v>
       </c>
       <c r="R15">
         <v>395</v>
+      </c>
+      <c r="S15">
+        <v>38.968400000000003</v>
+      </c>
+      <c r="T15">
+        <v>378</v>
       </c>
       <c r="U15">
         <v>38.168300000000002</v>
@@ -1170,6 +1404,12 @@
       <c r="F16">
         <v>359</v>
       </c>
+      <c r="G16">
+        <v>37.040300000000002</v>
+      </c>
+      <c r="H16">
+        <v>404</v>
+      </c>
       <c r="I16">
         <v>37.713999999999999</v>
       </c>
@@ -1188,11 +1428,23 @@
       <c r="N16">
         <v>418</v>
       </c>
+      <c r="O16">
+        <v>37.716900000000003</v>
+      </c>
+      <c r="P16">
+        <v>419</v>
+      </c>
       <c r="Q16">
         <v>38.458199999999998</v>
       </c>
       <c r="R16">
         <v>395</v>
+      </c>
+      <c r="S16">
+        <v>36.9694</v>
+      </c>
+      <c r="T16">
+        <v>420</v>
       </c>
       <c r="U16">
         <v>38.425400000000003</v>
@@ -1220,6 +1472,12 @@
       <c r="F17">
         <v>378</v>
       </c>
+      <c r="G17">
+        <v>38.301299999999998</v>
+      </c>
+      <c r="H17">
+        <v>391</v>
+      </c>
       <c r="I17">
         <v>38.332900000000002</v>
       </c>
@@ -1238,11 +1496,23 @@
       <c r="N17">
         <v>407</v>
       </c>
+      <c r="O17">
+        <v>38.535800000000002</v>
+      </c>
+      <c r="P17">
+        <v>391</v>
+      </c>
       <c r="Q17">
         <v>39.130699999999997</v>
       </c>
       <c r="R17">
         <v>372</v>
+      </c>
+      <c r="S17">
+        <v>38.021700000000003</v>
+      </c>
+      <c r="T17">
+        <v>404</v>
       </c>
       <c r="U17">
         <v>38.028700000000001</v>
@@ -1270,6 +1540,12 @@
       <c r="F18">
         <v>415</v>
       </c>
+      <c r="G18">
+        <v>38.332700000000003</v>
+      </c>
+      <c r="H18">
+        <v>408</v>
+      </c>
       <c r="I18">
         <v>38.913600000000002</v>
       </c>
@@ -1288,11 +1564,23 @@
       <c r="N18">
         <v>401</v>
       </c>
+      <c r="O18">
+        <v>37.544400000000003</v>
+      </c>
+      <c r="P18">
+        <v>403</v>
+      </c>
       <c r="Q18">
         <v>37.679299999999998</v>
       </c>
       <c r="R18">
         <v>416</v>
+      </c>
+      <c r="S18">
+        <v>37.817500000000003</v>
+      </c>
+      <c r="T18">
+        <v>393</v>
       </c>
       <c r="U18">
         <v>37.777500000000003</v>
@@ -1320,6 +1608,12 @@
       <c r="F19">
         <v>380</v>
       </c>
+      <c r="G19">
+        <v>38.940300000000001</v>
+      </c>
+      <c r="H19">
+        <v>391</v>
+      </c>
       <c r="I19">
         <v>39.4955</v>
       </c>
@@ -1338,11 +1632,23 @@
       <c r="N19">
         <v>394</v>
       </c>
+      <c r="O19">
+        <v>37.329300000000003</v>
+      </c>
+      <c r="P19">
+        <v>380</v>
+      </c>
       <c r="Q19">
         <v>37.957799999999999</v>
       </c>
       <c r="R19">
         <v>388</v>
+      </c>
+      <c r="S19">
+        <v>37.594999999999999</v>
+      </c>
+      <c r="T19">
+        <v>408</v>
       </c>
       <c r="U19">
         <v>38.545200000000001</v>
@@ -1370,6 +1676,12 @@
       <c r="F20">
         <v>372</v>
       </c>
+      <c r="G20">
+        <v>38.9557</v>
+      </c>
+      <c r="H20">
+        <v>364</v>
+      </c>
       <c r="I20">
         <v>38.8825</v>
       </c>
@@ -1388,11 +1700,23 @@
       <c r="N20">
         <v>376</v>
       </c>
+      <c r="O20">
+        <v>38.154600000000002</v>
+      </c>
+      <c r="P20">
+        <v>403</v>
+      </c>
       <c r="Q20">
         <v>38.863300000000002</v>
       </c>
       <c r="R20">
         <v>397</v>
+      </c>
+      <c r="S20">
+        <v>38.324199999999998</v>
+      </c>
+      <c r="T20">
+        <v>396</v>
       </c>
       <c r="U20">
         <v>38.406100000000002</v>
@@ -1420,6 +1744,12 @@
       <c r="F21">
         <v>382</v>
       </c>
+      <c r="G21">
+        <v>39.027299999999997</v>
+      </c>
+      <c r="H21">
+        <v>372</v>
+      </c>
       <c r="I21">
         <v>39.298000000000002</v>
       </c>
@@ -1438,11 +1768,23 @@
       <c r="N21">
         <v>367</v>
       </c>
+      <c r="O21">
+        <v>38.071399999999997</v>
+      </c>
+      <c r="P21">
+        <v>420</v>
+      </c>
       <c r="Q21">
         <v>37.613</v>
       </c>
       <c r="R21">
         <v>386</v>
+      </c>
+      <c r="S21">
+        <v>38.030999999999999</v>
+      </c>
+      <c r="T21">
+        <v>378</v>
       </c>
       <c r="U21">
         <v>37.864100000000001</v>
@@ -1470,6 +1812,12 @@
       <c r="F22">
         <v>354</v>
       </c>
+      <c r="G22">
+        <v>39.112400000000001</v>
+      </c>
+      <c r="H22">
+        <v>384</v>
+      </c>
       <c r="I22">
         <v>39.463999999999999</v>
       </c>
@@ -1488,11 +1836,23 @@
       <c r="N22">
         <v>379</v>
       </c>
+      <c r="O22">
+        <v>39.580399999999997</v>
+      </c>
+      <c r="P22">
+        <v>375</v>
+      </c>
       <c r="Q22">
         <v>38.276899999999998</v>
       </c>
       <c r="R22">
         <v>416</v>
+      </c>
+      <c r="S22">
+        <v>38.263599999999997</v>
+      </c>
+      <c r="T22">
+        <v>401</v>
       </c>
       <c r="U22">
         <v>38.043500000000002</v>
@@ -1520,6 +1880,12 @@
       <c r="F23">
         <v>348</v>
       </c>
+      <c r="G23">
+        <v>38.716099999999997</v>
+      </c>
+      <c r="H23">
+        <v>358</v>
+      </c>
       <c r="I23">
         <v>39.335599999999999</v>
       </c>
@@ -1538,11 +1904,23 @@
       <c r="N23">
         <v>387</v>
       </c>
+      <c r="O23">
+        <v>39.590200000000003</v>
+      </c>
+      <c r="P23">
+        <v>380</v>
+      </c>
       <c r="Q23">
         <v>38.794600000000003</v>
       </c>
       <c r="R23">
         <v>388</v>
+      </c>
+      <c r="S23">
+        <v>38.237900000000003</v>
+      </c>
+      <c r="T23">
+        <v>399</v>
       </c>
       <c r="U23">
         <v>38.0792</v>
@@ -1570,6 +1948,12 @@
       <c r="F24">
         <v>335</v>
       </c>
+      <c r="G24">
+        <v>39.210799999999999</v>
+      </c>
+      <c r="H24">
+        <v>344</v>
+      </c>
       <c r="I24">
         <v>39.725299999999997</v>
       </c>
@@ -1588,11 +1972,23 @@
       <c r="N24">
         <v>357</v>
       </c>
+      <c r="O24">
+        <v>39.274900000000002</v>
+      </c>
+      <c r="P24">
+        <v>357</v>
+      </c>
       <c r="Q24">
         <v>39.533799999999999</v>
       </c>
       <c r="R24">
         <v>359</v>
+      </c>
+      <c r="S24">
+        <v>38.643700000000003</v>
+      </c>
+      <c r="T24">
+        <v>418</v>
       </c>
       <c r="U24">
         <v>37.7911</v>
@@ -1620,6 +2016,12 @@
       <c r="F25">
         <v>339</v>
       </c>
+      <c r="G25">
+        <v>38.924900000000001</v>
+      </c>
+      <c r="H25">
+        <v>328</v>
+      </c>
       <c r="I25">
         <v>38.567399999999999</v>
       </c>
@@ -1638,11 +2040,23 @@
       <c r="N25">
         <v>340</v>
       </c>
+      <c r="O25">
+        <v>38.7468</v>
+      </c>
+      <c r="P25">
+        <v>378</v>
+      </c>
       <c r="Q25">
         <v>38.789900000000003</v>
       </c>
       <c r="R25">
         <v>358</v>
+      </c>
+      <c r="S25">
+        <v>39.945099999999996</v>
+      </c>
+      <c r="T25">
+        <v>359</v>
       </c>
       <c r="U25">
         <v>38.552599999999998</v>
@@ -1670,6 +2084,12 @@
       <c r="F26">
         <v>313</v>
       </c>
+      <c r="G26">
+        <v>39.671399999999998</v>
+      </c>
+      <c r="H26">
+        <v>310</v>
+      </c>
       <c r="I26">
         <v>39.642200000000003</v>
       </c>
@@ -1688,11 +2108,23 @@
       <c r="N26">
         <v>353</v>
       </c>
+      <c r="O26">
+        <v>38.742199999999997</v>
+      </c>
+      <c r="P26">
+        <v>332</v>
+      </c>
       <c r="Q26">
         <v>38.932899999999997</v>
       </c>
       <c r="R26">
         <v>352</v>
+      </c>
+      <c r="S26">
+        <v>39.309800000000003</v>
+      </c>
+      <c r="T26">
+        <v>378</v>
       </c>
       <c r="U26">
         <v>39.194899999999997</v>
@@ -1720,6 +2152,12 @@
       <c r="F27">
         <v>290</v>
       </c>
+      <c r="G27">
+        <v>40.534999999999997</v>
+      </c>
+      <c r="H27">
+        <v>301</v>
+      </c>
       <c r="I27">
         <v>39.463700000000003</v>
       </c>
@@ -1738,11 +2176,23 @@
       <c r="N27">
         <v>344</v>
       </c>
+      <c r="O27">
+        <v>39.102200000000003</v>
+      </c>
+      <c r="P27">
+        <v>354</v>
+      </c>
       <c r="Q27">
         <v>38.978999999999999</v>
       </c>
       <c r="R27">
         <v>355</v>
+      </c>
+      <c r="S27">
+        <v>39.435000000000002</v>
+      </c>
+      <c r="T27">
+        <v>371</v>
       </c>
       <c r="U27">
         <v>39.6691</v>
@@ -1770,6 +2220,12 @@
       <c r="F28">
         <v>285</v>
       </c>
+      <c r="G28">
+        <v>40.357999999999997</v>
+      </c>
+      <c r="H28">
+        <v>287</v>
+      </c>
       <c r="I28">
         <v>40.374499999999998</v>
       </c>
@@ -1788,11 +2244,23 @@
       <c r="N28">
         <v>303</v>
       </c>
+      <c r="O28">
+        <v>40.448599999999999</v>
+      </c>
+      <c r="P28">
+        <v>316</v>
+      </c>
       <c r="Q28">
         <v>38.833799999999997</v>
       </c>
       <c r="R28">
         <v>350</v>
+      </c>
+      <c r="S28">
+        <v>39.249699999999997</v>
+      </c>
+      <c r="T28">
+        <v>359</v>
       </c>
       <c r="U28">
         <v>39.165500000000002</v>
@@ -1820,6 +2288,12 @@
       <c r="F29">
         <v>244</v>
       </c>
+      <c r="G29">
+        <v>39.9955</v>
+      </c>
+      <c r="H29">
+        <v>267</v>
+      </c>
       <c r="I29">
         <v>40.442</v>
       </c>
@@ -1838,11 +2312,23 @@
       <c r="N29">
         <v>273</v>
       </c>
+      <c r="O29">
+        <v>40.094499999999996</v>
+      </c>
+      <c r="P29">
+        <v>296</v>
+      </c>
       <c r="Q29">
         <v>39.4756</v>
       </c>
       <c r="R29">
         <v>339</v>
+      </c>
+      <c r="S29">
+        <v>39.220399999999998</v>
+      </c>
+      <c r="T29">
+        <v>345</v>
       </c>
       <c r="U29">
         <v>38.2547</v>
@@ -1870,6 +2356,12 @@
       <c r="F30">
         <v>230</v>
       </c>
+      <c r="G30">
+        <v>40.636099999999999</v>
+      </c>
+      <c r="H30">
+        <v>219</v>
+      </c>
       <c r="I30">
         <v>39.996000000000002</v>
       </c>
@@ -1888,11 +2380,23 @@
       <c r="N30">
         <v>241</v>
       </c>
+      <c r="O30">
+        <v>40.611499999999999</v>
+      </c>
+      <c r="P30">
+        <v>247</v>
+      </c>
       <c r="Q30">
         <v>40.091799999999999</v>
       </c>
       <c r="R30">
         <v>285</v>
+      </c>
+      <c r="S30">
+        <v>39.887999999999998</v>
+      </c>
+      <c r="T30">
+        <v>321</v>
       </c>
       <c r="U30">
         <v>38.619</v>
@@ -1920,6 +2424,12 @@
       <c r="F31">
         <v>199</v>
       </c>
+      <c r="G31">
+        <v>40.485199999999999</v>
+      </c>
+      <c r="H31">
+        <v>209</v>
+      </c>
       <c r="I31">
         <v>40.370899999999999</v>
       </c>
@@ -1938,11 +2448,23 @@
       <c r="N31">
         <v>213</v>
       </c>
+      <c r="O31">
+        <v>40.231699999999996</v>
+      </c>
+      <c r="P31">
+        <v>248</v>
+      </c>
       <c r="Q31">
         <v>39.993600000000001</v>
       </c>
       <c r="R31">
         <v>278</v>
+      </c>
+      <c r="S31">
+        <v>39.722499999999997</v>
+      </c>
+      <c r="T31">
+        <v>299</v>
       </c>
       <c r="U31">
         <v>39.381599999999999</v>
@@ -1970,6 +2492,12 @@
       <c r="F32">
         <v>183</v>
       </c>
+      <c r="G32">
+        <v>40.365499999999997</v>
+      </c>
+      <c r="H32">
+        <v>180</v>
+      </c>
       <c r="I32">
         <v>40.15</v>
       </c>
@@ -1988,11 +2516,23 @@
       <c r="N32">
         <v>203</v>
       </c>
+      <c r="O32">
+        <v>40.239699999999999</v>
+      </c>
+      <c r="P32">
+        <v>217</v>
+      </c>
       <c r="Q32">
         <v>40.544800000000002</v>
       </c>
       <c r="R32">
         <v>242</v>
+      </c>
+      <c r="S32">
+        <v>40.092500000000001</v>
+      </c>
+      <c r="T32">
+        <v>264</v>
       </c>
       <c r="U32">
         <v>40.497999999999998</v>
@@ -2020,6 +2560,12 @@
       <c r="F33">
         <v>166</v>
       </c>
+      <c r="G33">
+        <v>39.8675</v>
+      </c>
+      <c r="H33">
+        <v>173</v>
+      </c>
       <c r="I33">
         <v>40.303899999999999</v>
       </c>
@@ -2038,11 +2584,23 @@
       <c r="N33">
         <v>197</v>
       </c>
+      <c r="O33">
+        <v>40.5548</v>
+      </c>
+      <c r="P33">
+        <v>192</v>
+      </c>
       <c r="Q33">
         <v>40.714199999999998</v>
       </c>
       <c r="R33">
         <v>202</v>
+      </c>
+      <c r="S33">
+        <v>40.4407</v>
+      </c>
+      <c r="T33">
+        <v>256</v>
       </c>
       <c r="U33">
         <v>40.390700000000002</v>
@@ -2070,6 +2628,12 @@
       <c r="F34">
         <v>159</v>
       </c>
+      <c r="G34">
+        <v>40.6</v>
+      </c>
+      <c r="H34">
+        <v>155</v>
+      </c>
       <c r="I34">
         <v>39.923200000000001</v>
       </c>
@@ -2088,11 +2652,23 @@
       <c r="N34">
         <v>167</v>
       </c>
+      <c r="O34">
+        <v>40.603000000000002</v>
+      </c>
+      <c r="P34">
+        <v>174</v>
+      </c>
       <c r="Q34">
         <v>40.1083</v>
       </c>
       <c r="R34">
         <v>210</v>
+      </c>
+      <c r="S34">
+        <v>40.445999999999998</v>
+      </c>
+      <c r="T34">
+        <v>234</v>
       </c>
       <c r="U34">
         <v>40.099800000000002</v>
@@ -2120,6 +2696,12 @@
       <c r="F35">
         <v>132</v>
       </c>
+      <c r="G35">
+        <v>39.971800000000002</v>
+      </c>
+      <c r="H35">
+        <v>142</v>
+      </c>
       <c r="I35">
         <v>40.089300000000001</v>
       </c>
@@ -2138,11 +2720,23 @@
       <c r="N35">
         <v>155</v>
       </c>
+      <c r="O35">
+        <v>40.093699999999998</v>
+      </c>
+      <c r="P35">
+        <v>159</v>
+      </c>
       <c r="Q35">
         <v>40.219299999999997</v>
       </c>
       <c r="R35">
         <v>191</v>
+      </c>
+      <c r="S35">
+        <v>40.5518</v>
+      </c>
+      <c r="T35">
+        <v>195</v>
       </c>
       <c r="U35">
         <v>39.892099999999999</v>
@@ -2170,6 +2764,12 @@
       <c r="F36">
         <v>112</v>
       </c>
+      <c r="G36">
+        <v>40.4285</v>
+      </c>
+      <c r="H36">
+        <v>115</v>
+      </c>
       <c r="I36">
         <v>40.239199999999997</v>
       </c>
@@ -2188,11 +2788,23 @@
       <c r="N36">
         <v>141</v>
       </c>
+      <c r="O36">
+        <v>40.489199999999997</v>
+      </c>
+      <c r="P36">
+        <v>132</v>
+      </c>
       <c r="Q36">
         <v>40.499000000000002</v>
       </c>
       <c r="R36">
         <v>161</v>
+      </c>
+      <c r="S36">
+        <v>40.395000000000003</v>
+      </c>
+      <c r="T36">
+        <v>178</v>
       </c>
       <c r="U36">
         <v>40.646000000000001</v>
@@ -2220,6 +2832,12 @@
       <c r="F37">
         <v>97</v>
       </c>
+      <c r="G37">
+        <v>40.045900000000003</v>
+      </c>
+      <c r="H37">
+        <v>107</v>
+      </c>
       <c r="I37">
         <v>40.406799999999997</v>
       </c>
@@ -2238,11 +2856,23 @@
       <c r="N37">
         <v>114</v>
       </c>
+      <c r="O37">
+        <v>40.5426</v>
+      </c>
+      <c r="P37">
+        <v>119</v>
+      </c>
       <c r="Q37">
         <v>39.880099999999999</v>
       </c>
       <c r="R37">
         <v>135</v>
+      </c>
+      <c r="S37">
+        <v>40.491799999999998</v>
+      </c>
+      <c r="T37">
+        <v>154</v>
       </c>
       <c r="U37">
         <v>40.369700000000002</v>
@@ -2270,6 +2900,12 @@
       <c r="F38">
         <v>88</v>
       </c>
+      <c r="G38">
+        <v>40.067</v>
+      </c>
+      <c r="H38">
+        <v>91</v>
+      </c>
       <c r="I38">
         <v>40.623800000000003</v>
       </c>
@@ -2288,11 +2924,23 @@
       <c r="N38">
         <v>99</v>
       </c>
+      <c r="O38">
+        <v>40.2376</v>
+      </c>
+      <c r="P38">
+        <v>103</v>
+      </c>
       <c r="Q38">
         <v>40.616900000000001</v>
       </c>
       <c r="R38">
         <v>116</v>
+      </c>
+      <c r="S38">
+        <v>40.1327</v>
+      </c>
+      <c r="T38">
+        <v>152</v>
       </c>
       <c r="U38">
         <v>40.448300000000003</v>
@@ -2320,6 +2968,12 @@
       <c r="F39">
         <v>75</v>
       </c>
+      <c r="G39">
+        <v>40.502200000000002</v>
+      </c>
+      <c r="H39">
+        <v>78</v>
+      </c>
       <c r="I39">
         <v>40.507399999999997</v>
       </c>
@@ -2338,11 +2992,23 @@
       <c r="N39">
         <v>85</v>
       </c>
+      <c r="O39">
+        <v>40.513199999999998</v>
+      </c>
+      <c r="P39">
+        <v>89</v>
+      </c>
       <c r="Q39">
         <v>40.770200000000003</v>
       </c>
       <c r="R39">
         <v>109</v>
+      </c>
+      <c r="S39">
+        <v>40.513800000000003</v>
+      </c>
+      <c r="T39">
+        <v>137</v>
       </c>
       <c r="U39">
         <v>40.396900000000002</v>
@@ -2370,6 +3036,12 @@
       <c r="F40">
         <v>67</v>
       </c>
+      <c r="G40">
+        <v>40.732900000000001</v>
+      </c>
+      <c r="H40">
+        <v>63</v>
+      </c>
       <c r="I40">
         <v>39.982599999999998</v>
       </c>
@@ -2388,11 +3060,23 @@
       <c r="N40">
         <v>73</v>
       </c>
+      <c r="O40">
+        <v>40.201300000000003</v>
+      </c>
+      <c r="P40">
+        <v>81</v>
+      </c>
       <c r="Q40">
         <v>40.633600000000001</v>
       </c>
       <c r="R40">
         <v>98</v>
+      </c>
+      <c r="S40">
+        <v>40.3919</v>
+      </c>
+      <c r="T40">
+        <v>123</v>
       </c>
       <c r="U40">
         <v>40.270600000000002</v>
@@ -2420,6 +3104,12 @@
       <c r="F41">
         <v>60</v>
       </c>
+      <c r="G41">
+        <v>40.508800000000001</v>
+      </c>
+      <c r="H41">
+        <v>60</v>
+      </c>
       <c r="I41">
         <v>40.589799999999997</v>
       </c>
@@ -2438,11 +3128,23 @@
       <c r="N41">
         <v>66</v>
       </c>
+      <c r="O41">
+        <v>40.578899999999997</v>
+      </c>
+      <c r="P41">
+        <v>69</v>
+      </c>
       <c r="Q41">
         <v>40.614600000000003</v>
       </c>
       <c r="R41">
         <v>83</v>
+      </c>
+      <c r="S41">
+        <v>40.789000000000001</v>
+      </c>
+      <c r="T41">
+        <v>101</v>
       </c>
       <c r="U41">
         <v>40.305799999999998</v>
@@ -2470,6 +3172,12 @@
       <c r="F42">
         <v>52</v>
       </c>
+      <c r="G42">
+        <v>40.587800000000001</v>
+      </c>
+      <c r="H42">
+        <v>56</v>
+      </c>
       <c r="I42">
         <v>40.375599999999999</v>
       </c>
@@ -2488,11 +3196,23 @@
       <c r="N42">
         <v>64</v>
       </c>
+      <c r="O42">
+        <v>40.289000000000001</v>
+      </c>
+      <c r="P42">
+        <v>63</v>
+      </c>
       <c r="Q42">
         <v>40.343800000000002</v>
       </c>
       <c r="R42">
         <v>80</v>
+      </c>
+      <c r="S42">
+        <v>40.561999999999998</v>
+      </c>
+      <c r="T42">
+        <v>103</v>
       </c>
       <c r="U42">
         <v>40.721299999999999</v>
@@ -2520,6 +3240,12 @@
       <c r="F43">
         <v>54</v>
       </c>
+      <c r="G43">
+        <v>40.223999999999997</v>
+      </c>
+      <c r="H43">
+        <v>51</v>
+      </c>
       <c r="I43">
         <v>40.5471</v>
       </c>
@@ -2538,11 +3264,23 @@
       <c r="N43">
         <v>57</v>
       </c>
+      <c r="O43">
+        <v>40.572499999999998</v>
+      </c>
+      <c r="P43">
+        <v>65</v>
+      </c>
       <c r="Q43">
         <v>40.432400000000001</v>
       </c>
       <c r="R43">
         <v>68</v>
+      </c>
+      <c r="S43">
+        <v>40.587000000000003</v>
+      </c>
+      <c r="T43">
+        <v>101</v>
       </c>
       <c r="U43">
         <v>40.2727</v>
@@ -2570,6 +3308,12 @@
       <c r="F44">
         <v>50</v>
       </c>
+      <c r="G44">
+        <v>40.321599999999997</v>
+      </c>
+      <c r="H44">
+        <v>47</v>
+      </c>
       <c r="I44">
         <v>40.570399999999999</v>
       </c>
@@ -2588,11 +3332,23 @@
       <c r="N44">
         <v>56</v>
       </c>
+      <c r="O44">
+        <v>40.747100000000003</v>
+      </c>
+      <c r="P44">
+        <v>57</v>
+      </c>
       <c r="Q44">
         <v>40.450400000000002</v>
       </c>
       <c r="R44">
         <v>64</v>
+      </c>
+      <c r="S44">
+        <v>40.618299999999998</v>
+      </c>
+      <c r="T44">
+        <v>100</v>
       </c>
       <c r="U44">
         <v>40.110700000000001</v>
@@ -2620,6 +3376,12 @@
       <c r="F45">
         <v>43</v>
       </c>
+      <c r="G45">
+        <v>40.362900000000003</v>
+      </c>
+      <c r="H45">
+        <v>46</v>
+      </c>
       <c r="I45">
         <v>40.499299999999998</v>
       </c>
@@ -2638,11 +3400,23 @@
       <c r="N45">
         <v>49</v>
       </c>
+      <c r="O45">
+        <v>40.572699999999998</v>
+      </c>
+      <c r="P45">
+        <v>49</v>
+      </c>
       <c r="Q45">
         <v>40.721299999999999</v>
       </c>
       <c r="R45">
         <v>56</v>
+      </c>
+      <c r="S45">
+        <v>40.577500000000001</v>
+      </c>
+      <c r="T45">
+        <v>88</v>
       </c>
       <c r="U45">
         <v>40.640599999999999</v>
@@ -2670,6 +3444,12 @@
       <c r="F46">
         <v>39</v>
       </c>
+      <c r="G46">
+        <v>40.155799999999999</v>
+      </c>
+      <c r="H46">
+        <v>42</v>
+      </c>
       <c r="I46">
         <v>40.516199999999998</v>
       </c>
@@ -2688,11 +3468,23 @@
       <c r="N46">
         <v>45</v>
       </c>
+      <c r="O46">
+        <v>40.423299999999998</v>
+      </c>
+      <c r="P46">
+        <v>46</v>
+      </c>
       <c r="Q46">
         <v>40.415599999999998</v>
       </c>
       <c r="R46">
         <v>55</v>
+      </c>
+      <c r="S46">
+        <v>40.046500000000002</v>
+      </c>
+      <c r="T46">
+        <v>86</v>
       </c>
       <c r="U46">
         <v>40.379300000000001</v>
@@ -2720,6 +3512,12 @@
       <c r="F47">
         <v>36</v>
       </c>
+      <c r="G47">
+        <v>40.511200000000002</v>
+      </c>
+      <c r="H47">
+        <v>38</v>
+      </c>
       <c r="I47">
         <v>40.469299999999997</v>
       </c>
@@ -2738,11 +3536,23 @@
       <c r="N47">
         <v>41</v>
       </c>
+      <c r="O47">
+        <v>40.592300000000002</v>
+      </c>
+      <c r="P47">
+        <v>44</v>
+      </c>
       <c r="Q47">
         <v>40.475299999999997</v>
       </c>
       <c r="R47">
         <v>46</v>
+      </c>
+      <c r="S47">
+        <v>40.654200000000003</v>
+      </c>
+      <c r="T47">
+        <v>80</v>
       </c>
       <c r="U47">
         <v>40.143599999999999</v>
@@ -2770,6 +3580,12 @@
       <c r="F48">
         <v>36</v>
       </c>
+      <c r="G48">
+        <v>40.389200000000002</v>
+      </c>
+      <c r="H48">
+        <v>36</v>
+      </c>
       <c r="I48">
         <v>40.128500000000003</v>
       </c>
@@ -2788,11 +3604,23 @@
       <c r="N48">
         <v>40</v>
       </c>
+      <c r="O48">
+        <v>39.8352</v>
+      </c>
+      <c r="P48">
+        <v>42</v>
+      </c>
       <c r="Q48">
         <v>40.320599999999999</v>
       </c>
       <c r="R48">
         <v>46</v>
+      </c>
+      <c r="S48">
+        <v>40.4617</v>
+      </c>
+      <c r="T48">
+        <v>66</v>
       </c>
       <c r="U48">
         <v>40.611499999999999</v>
@@ -2820,6 +3648,12 @@
       <c r="F49">
         <v>34</v>
       </c>
+      <c r="G49">
+        <v>40.068600000000004</v>
+      </c>
+      <c r="H49">
+        <v>35</v>
+      </c>
       <c r="I49">
         <v>40.182400000000001</v>
       </c>
@@ -2838,11 +3672,23 @@
       <c r="N49">
         <v>36</v>
       </c>
+      <c r="O49">
+        <v>40.022500000000001</v>
+      </c>
+      <c r="P49">
+        <v>38</v>
+      </c>
       <c r="Q49">
         <v>40.710500000000003</v>
       </c>
       <c r="R49">
         <v>43</v>
+      </c>
+      <c r="S49">
+        <v>40.331400000000002</v>
+      </c>
+      <c r="T49">
+        <v>75</v>
       </c>
       <c r="U49">
         <v>40.552100000000003</v>
